--- a/Docs/Testing (TES)/Test_Cases/TS_home_menu_recent_logo_head_foot.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_home_menu_recent_logo_head_foot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20055" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="135">
   <si>
     <t>N</t>
   </si>
@@ -270,15 +270,9 @@
     <t>тестирование навигационных кнопок блока последние добавленные фото после добавления 12 фото</t>
   </si>
   <si>
-    <t>1. Действие 9                                                                                                                                   2. В блоке "Последние добавленные фото" нажать на навигационную кнопку "Next&gt;"                                                                                     3. Убедиться, что в блоке "Последние добавленные фото" теперь 9 фото, которые мы загружали перед тем как загрузились последние 9 фото и присутствуют навигационные кнопки "&lt;Prev", "Next&gt;", "1", "2", "3", причем кнопка "2" неактивна, а кнопки  "&lt;Prev", "Next&gt;", "1" и "3" активны</t>
-  </si>
-  <si>
     <t>TS_home_023</t>
   </si>
   <si>
-    <t>1. Действие 9                                                                                                                                   2. В блоке "Последние добавленные фото" нажать на навигационную кнопку"&lt;Prev"                                                                                     3. Убедиться, что в блоке "Последние добавленные фото" теперь 9 фото, которые мы загружали последними и присутствуют навигационные кнопки "Next&gt;", "&lt;Prev", "1", "2" и "3", причем кнопки "&lt;Prev", "1" неактивна, а кнопки "Next&gt;", "2" и "3" активны</t>
-  </si>
-  <si>
     <t>TS_home_024</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t xml:space="preserve">1. Удалить все фото из тестового акаунта                                         2. Добавить в тестовый акаунт 3 фото </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Удалить все фото из тестового акаунта                                                        2. Добавить в тестовый акаунт 25 фото                                                              3. Перейти на страницу Home                                                                4. Убедиться, что на странице в блоке "Последние добавленные фото" 9 фото, которые мы добавляли последими в тестовый акаунт                                                                                   5. Убедиться, что на странице Home в блоке "Последние добавленные фото" присутствуют навигационные кнопки "&lt;Prev", "Next&gt;", "1", "2" и "3", причем кнопки "&lt;Prev" и "1" неактивны, а кнопки "2", "3" и "Next&gt;" активны                                          </t>
-  </si>
-  <si>
     <t>Рисунок 1</t>
   </si>
   <si>
@@ -379,6 +370,57 @@
   </si>
   <si>
     <t>Дополнительные условия</t>
+  </si>
+  <si>
+    <t>Zazulya</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                       2. Blocked                      3. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                       2. Blocked                      3. Blocked                      4. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                       2. Blocked                      3. Blocked                      4. Blocked                      5. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Blocked                      3. Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Blocked                      3. Blocked                      4. Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass                             4. Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Удалить все фото из тестового акаунта                                                        2. Добавить в тестовый акаунт 25 фото                                                              3. Перейти на страницу Home                                                                4. Убедиться, что на странице в блоке "Последние добавленные фото" 10 фото, которые мы добавляли последими в тестовый акаунт                                                                                   5. Убедиться, что на странице Home в блоке "Последние добавленные фото" присутствуют навигационные кнопки "&lt;Prev", "Next&gt;", "1", "2" и "3", причем кнопки "&lt;Prev" и "1" неактивны, а кнопки "2", "3" и "Next&gt;" активны                                          </t>
+  </si>
+  <si>
+    <t>1. Действие 9                                                                                                                                   2. В блоке "Последние добавленные фото" нажать на навигационную кнопку "Next&gt;"                                                                                     3. Убедиться, что в блоке "Последние добавленные фото" теперь 10 фото, которые мы загружали перед тем как загрузились последние 10 фото и присутствуют навигационные кнопки "&lt;Prev", "Next&gt;", "1", "2", "3", причем кнопка "2" неактивна, а кнопки  "&lt;Prev", "Next&gt;", "1" и "3" активны</t>
+  </si>
+  <si>
+    <t>1. Действие 9                                                                                                                                   2. В блоке "Последние добавленные фото" нажать на навигационную кнопку "Next&gt;", потом на кнопку "&lt;Prev"                                                                                     3. Убедиться, что в блоке "Последние добавленные фото" теперь 10 фото, которые мы загружали последними и присутствуют навигационные кнопки "Next&gt;", "&lt;Prev", "1", "2" и "3", причем кнопки "&lt;Prev", "1" неактивна, а кнопки "Next&gt;", "2" и "3" активны</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -446,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -490,6 +532,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -524,12 +569,30 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -708,8 +771,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I25"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -1014,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1483,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1491,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>83</v>
@@ -1503,7 +1566,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1511,17 +1574,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1542,20 +1605,20 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -1572,7 +1635,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,131 +1663,131 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="22"/>
+      <c r="C39" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="22"/>
+        <v>101</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="21"/>
+      <c r="C47" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="22"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1757,17 +1820,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -1804,16 +1868,651 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_home_menu_recent_logo_head_foot.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_home_menu_recent_logo_head_foot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20055" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="15270" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="141">
   <si>
     <t>N</t>
   </si>
@@ -300,27 +300,15 @@
     <t>Страница по адресу http://www.vashchenko.ru</t>
   </si>
   <si>
-    <t>1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести City и нажать кнопку New</t>
-  </si>
-  <si>
     <t>Действие 2</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести Nature и нажать кнопку New </t>
-  </si>
-  <si>
     <t>Действие 3</t>
   </si>
   <si>
-    <t>1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести Car и нажать кнопку New</t>
-  </si>
-  <si>
     <t>Действие 4</t>
   </si>
   <si>
-    <t>1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести Car 1 и нажать кнопку New</t>
-  </si>
-  <si>
     <t>Действие 5</t>
   </si>
   <si>
@@ -421,6 +409,36 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести Nature, выбрать тег Nature и нажать кнопку New </t>
+  </si>
+  <si>
+    <t>1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести City, выбрать тег City и нажать кнопку New</t>
+  </si>
+  <si>
+    <t>1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести Car, выбрать тег Car и нажать кнопку New</t>
+  </si>
+  <si>
+    <t>1. Зайти в админку                                                                                        2. В поле ввода названия альбома ввести Car 1, выбрать тег Car и нажать кнопку New</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass                             4. Pass                             5. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Fail                               3. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Fail                               3. Fail                               4. Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Fail</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
   </si>
 </sst>
 </file>
@@ -488,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -534,6 +552,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -771,8 +801,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I49" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I49"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -1077,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1576,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1566,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1605,7 +1635,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="8"/>
@@ -1673,121 +1703,121 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="23"/>
+      <c r="C39" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="27"/>
     </row>
     <row r="46" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="23"/>
+        <v>103</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="22"/>
+      <c r="C47" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="26"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1820,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,17 +1912,17 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1909,17 +1939,17 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1936,17 +1966,17 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1963,17 +1993,17 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1990,17 +2020,17 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2017,17 +2047,17 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2044,17 +2074,17 @@
         <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2071,17 +2101,17 @@
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2098,17 +2128,17 @@
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2125,17 +2155,17 @@
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,17 +2182,17 @@
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2179,17 +2209,17 @@
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2206,17 +2236,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2233,17 +2263,17 @@
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2260,17 +2290,17 @@
         <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2287,17 +2317,17 @@
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2312,19 +2342,19 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2341,17 +2371,17 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2368,17 +2398,17 @@
         <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2395,17 +2425,17 @@
         <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2422,17 +2452,17 @@
         <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2449,17 +2479,17 @@
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2476,17 +2506,17 @@
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2501,23 +2531,668 @@
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
